--- a/PCB/Bill.xlsx
+++ b/PCB/Bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Watch\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C73FD0-36E7-443B-87DB-A432F2902677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB041711-29BC-47DA-98AB-C9957697CA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <t>ESOP-8_L4.9-W3.9-P1.27-LS6.0-BL-EP</t>
   </si>
   <si>
-    <t>实际购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?id=41234671442&amp;mi_id=00003AAeSdhXf_6cJHLgoO4hzLRntkx4kRiWPG2-TyrDHME&amp;skuId=3129099470954&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.68a62e8dxB965G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +271,13 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?abbucket=11&amp;id=622298744726&amp;mi_id=0000g2nEvmRX0eRFZcDYP6B4kQAvtg_m7YHJ-xi6wJpSY-4&amp;ns=1&amp;priceTId=213e08d217614828864027089e0fef&amp;spm=a21n57.1.hoverItem.14&amp;utparam=%7B%22aplus_abtest%22%3A%228c09761aba2b87ab29d2a1dc9c443706%22%7D&amp;xxc=taobaoSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?from=cart&amp;id=714971603325&amp;mi_id=0000gTfO0do6a2H7gSNJ5p1Tej1VgdPZ_pwmdWPDvROAdMI&amp;skuId=5217683323384&amp;spm=a1z0d.6639537%2F202410.item.d714971603325.7e7f7484EnjkWO&amp;upStreamPrice=754</t>
+  </si>
+  <si>
+    <t>实际购买(不含优惠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,12 +635,13 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
     <col min="6" max="6" width="43.86328125" customWidth="1"/>
     <col min="7" max="7" width="95.73046875" customWidth="1"/>
   </cols>
@@ -656,7 +660,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -679,7 +683,7 @@
         <f>B2*C2</f>
         <v>3.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>D2</f>
         <v>3.3</v>
       </c>
@@ -687,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -704,12 +708,12 @@
         <f t="shared" ref="D3:D5" si="0">B3*C3</f>
         <v>0.12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E24" si="1">D3</f>
         <v>0.12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -726,12 +730,12 @@
         <f t="shared" si="0"/>
         <v>12.98</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>12.98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -748,7 +752,7 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
@@ -756,7 +760,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -774,14 +778,14 @@
         <f t="shared" ref="D6:D24" si="2">B6*C6</f>
         <v>0.1515</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3.03</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -798,7 +802,7 @@
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
@@ -806,7 +810,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -823,12 +827,12 @@
         <f t="shared" si="2"/>
         <v>7.99</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -846,14 +850,14 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1.5</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -871,14 +875,14 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -896,14 +900,14 @@
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -921,14 +925,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2.5</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -946,14 +950,14 @@
         <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>6.5</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -971,14 +975,14 @@
         <f t="shared" si="2"/>
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>3.79</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -996,14 +1000,14 @@
         <f t="shared" si="2"/>
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3.79</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1021,14 +1025,14 @@
         <f t="shared" si="2"/>
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>3.79</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1046,14 +1050,14 @@
         <f t="shared" si="2"/>
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3.79</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1071,14 +1075,14 @@
         <f t="shared" si="2"/>
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>5.0599999999999996</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1096,14 +1100,14 @@
         <f t="shared" si="2"/>
         <v>0.11399999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2.2799999999999998</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1120,7 +1124,7 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1145,7 +1149,7 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1171,7 +1175,7 @@
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1.8</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1188,14 +1192,19 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>7.93</v>
+      </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>7.93</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1212,7 +1221,7 @@
         <f t="shared" si="2"/>
         <v>0.79</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1230,11 +1239,11 @@
       <c r="B25" s="2"/>
       <c r="D25" s="2">
         <f>SUM(D2:D24)</f>
-        <v>27.365600000000001</v>
+        <v>35.2956</v>
       </c>
       <c r="E25">
         <f>SUM(E2:E24)</f>
-        <v>68.399999999999991</v>
+        <v>76.33</v>
       </c>
     </row>
   </sheetData>
